--- a/KUPX6AA3.xlsx
+++ b/KUPX6AA3.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t xml:space="preserve">SHS  (KUPX6AA3)  </t>
@@ -95,7 +95,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
@@ -173,7 +173,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>1</v>
